--- a/Industry/201612-201908/HKD/MILLION/Analysis_110_18 - Medical and Health Care Equipment_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_110_18 - Medical and Health Care Equipment_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="2304" yWindow="1644"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -28319,6 +28320,868 @@
     <col bestFit="1" customWidth="1" max="5" min="5" width="9"/>
     <col bestFit="1" customWidth="1" max="6" min="6" width="10"/>
     <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="9"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12728.367</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12440.658</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2.26</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8578.486000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13021.158</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.666</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8610.944</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3271.144</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3168.332</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-3.143</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2485.434</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3822.845</v>
+      </c>
+      <c r="G3" t="n">
+        <v>20.658</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2798.775</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12.607</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>25.468</v>
+      </c>
+      <c r="L3" t="n">
+        <v>28.973</v>
+      </c>
+      <c r="M3" t="n">
+        <v>29.359</v>
+      </c>
+      <c r="N3" t="n">
+        <v>32.503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2774.757</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2838.906</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.312</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2234.844</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3336.229</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17.518</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2049.76</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-8.282</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="L4" t="n">
+        <v>26.052</v>
+      </c>
+      <c r="M4" t="n">
+        <v>25.622</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23.804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2594.259</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2450.816</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5.529</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1146.869</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1758.026</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-28.268</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1479.54</v>
+      </c>
+      <c r="I5" t="n">
+        <v>29.007</v>
+      </c>
+      <c r="J5" t="n">
+        <v>20.382</v>
+      </c>
+      <c r="K5" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13.369</v>
+      </c>
+      <c r="M5" t="n">
+        <v>13.501</v>
+      </c>
+      <c r="N5" t="n">
+        <v>17.182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" t="n">
+        <v>542.381</v>
+      </c>
+      <c r="C6" t="n">
+        <v>639.9829999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.995</v>
+      </c>
+      <c r="E6" t="n">
+        <v>416.445</v>
+      </c>
+      <c r="F6" t="n">
+        <v>770.16</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20.341</v>
+      </c>
+      <c r="H6" t="n">
+        <v>484.543</v>
+      </c>
+      <c r="I6" t="n">
+        <v>16.352</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.261</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.144</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.855</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.915</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" t="n">
+        <v>725.58</v>
+      </c>
+      <c r="C7" t="n">
+        <v>589.635</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-18.736</v>
+      </c>
+      <c r="E7" t="n">
+        <v>402.59</v>
+      </c>
+      <c r="F7" t="n">
+        <v>600.979</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="H7" t="n">
+        <v>421.88</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.792</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.693</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.615</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1193.722</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1202.603</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="E8" t="n">
+        <v>837.7380000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1194.571</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.668</v>
+      </c>
+      <c r="H8" t="n">
+        <v>351.715</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-58.016</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9.378</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9.667</v>
+      </c>
+      <c r="L8" t="n">
+        <v>9.766</v>
+      </c>
+      <c r="M8" t="n">
+        <v>9.173999999999999</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.085</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" t="n">
+        <v>325.036</v>
+      </c>
+      <c r="C9" t="n">
+        <v>343.345</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.633</v>
+      </c>
+      <c r="E9" t="n">
+        <v>278.903</v>
+      </c>
+      <c r="F9" t="n">
+        <v>423.001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>290.338</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.554</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.251</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.249</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" t="n">
+        <v>310.977</v>
+      </c>
+      <c r="C10" t="n">
+        <v>406.295</v>
+      </c>
+      <c r="D10" t="n">
+        <v>30.651</v>
+      </c>
+      <c r="E10" t="n">
+        <v>224.862</v>
+      </c>
+      <c r="F10" t="n">
+        <v>325.851</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-19.799</v>
+      </c>
+      <c r="H10" t="n">
+        <v>221.511</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.443</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.266</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.621</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.502</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" t="n">
+        <v>614.715</v>
+      </c>
+      <c r="C11" t="n">
+        <v>322.621</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-47.517</v>
+      </c>
+      <c r="E11" t="n">
+        <v>261.143</v>
+      </c>
+      <c r="F11" t="n">
+        <v>328.419</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.797</v>
+      </c>
+      <c r="H11" t="n">
+        <v>184.33</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-29.414</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.829</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.593</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.522</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" t="n">
+        <v>170.197</v>
+      </c>
+      <c r="C12" t="n">
+        <v>217.328</v>
+      </c>
+      <c r="D12" t="n">
+        <v>27.692</v>
+      </c>
+      <c r="E12" t="n">
+        <v>140.848</v>
+      </c>
+      <c r="F12" t="n">
+        <v>213.423</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-1.797</v>
+      </c>
+      <c r="H12" t="n">
+        <v>139.02</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1.298</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.337</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.642</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.639</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="C13" t="n">
+        <v>99.977</v>
+      </c>
+      <c r="D13" t="n">
+        <v>199.963</v>
+      </c>
+      <c r="E13" t="n">
+        <v>74.142</v>
+      </c>
+      <c r="F13" t="n">
+        <v>132.84</v>
+      </c>
+      <c r="G13" t="n">
+        <v>32.871</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100.541</v>
+      </c>
+      <c r="I13" t="n">
+        <v>35.605</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" t="n">
+        <v>78.452</v>
+      </c>
+      <c r="C14" t="n">
+        <v>51.209</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-34.726</v>
+      </c>
+      <c r="E14" t="n">
+        <v>24.697</v>
+      </c>
+      <c r="F14" t="n">
+        <v>38.395</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-25.024</v>
+      </c>
+      <c r="H14" t="n">
+        <v>43.569</v>
+      </c>
+      <c r="I14" t="n">
+        <v>76.414</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B15" t="n">
+        <v>15.054</v>
+      </c>
+      <c r="C15" t="n">
+        <v>23.805</v>
+      </c>
+      <c r="D15" t="n">
+        <v>58.135</v>
+      </c>
+      <c r="E15" t="n">
+        <v>24.64</v>
+      </c>
+      <c r="F15" t="n">
+        <v>39.823</v>
+      </c>
+      <c r="G15" t="n">
+        <v>67.288</v>
+      </c>
+      <c r="H15" t="n">
+        <v>22.015</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-10.655</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.702</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.659</v>
+      </c>
+      <c r="D16" t="n">
+        <v>232.531</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.549</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6.732</v>
+      </c>
+      <c r="G16" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="H16" t="n">
+        <v>11.789</v>
+      </c>
+      <c r="I16" t="n">
+        <v>159.139</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17" t="n">
+        <v>26.406</v>
+      </c>
+      <c r="C17" t="n">
+        <v>38.943</v>
+      </c>
+      <c r="D17" t="n">
+        <v>47.482</v>
+      </c>
+      <c r="E17" t="n">
+        <v>12.947</v>
+      </c>
+      <c r="F17" t="n">
+        <v>17.219</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-55.784</v>
+      </c>
+      <c r="H17" t="n">
+        <v>8.146000000000001</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-37.082</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" t="n">
+        <v>50.656</v>
+      </c>
+      <c r="C18" t="n">
+        <v>28.373</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-43.99</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7.709</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12.523</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-55.862</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.472</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-54.96</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>12.829</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-99.026</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="10"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="9"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="10"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
     <col bestFit="1" customWidth="1" max="8" min="8" width="10"/>
     <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
   </cols>
